--- a/Metropolitan Roads/28921/ITP-077-CIV-PSDS-Subgrade Preparation-Road Rev 0.xlsx
+++ b/Metropolitan Roads/28921/ITP-077-CIV-PSDS-Subgrade Preparation-Road Rev 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\04-Progress Street, South Dandenong\01-ITPs\ITP-077-CIV-PSDS-Subgrade Preparation-Road\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\28921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF2BD53-41F4-4F31-9E6A-BB21042E4F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58B5365-D15D-4EF9-BE22-E97B4D784C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8055" yWindow="-14595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="405" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1047,6 +1047,51 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1085,51 +1130,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
@@ -1555,103 +1555,103 @@
         <v>1</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="71" t="str">
+      <c r="C2" s="58" t="str">
         <f>"ITP-"&amp;C4&amp;"-"&amp;C3</f>
         <v xml:space="preserve">ITP-077-CIV-PSDS-Subgrade Preparation - Road </v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="72"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="59"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="71">
+      <c r="C5" s="58">
         <v>0</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="84">
+      <c r="C6" s="60">
         <v>45281</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="72"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="19" t="s">
         <v>11</v>
       </c>
@@ -1666,12 +1666,12 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1682,12 +1682,12 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="O14" s="1"/>
@@ -1696,15 +1696,15 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="O15" s="1"/>
@@ -1730,43 +1730,43 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79" t="s">
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="79" t="s">
+      <c r="I17" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="J17" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="79" t="s">
+      <c r="K17" s="68" t="s">
         <v>22</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="37" t="s">
         <v>23</v>
       </c>
@@ -1776,10 +1776,10 @@
       <c r="G18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="79"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="68"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
@@ -1787,18 +1787,18 @@
       <c r="A19" s="16">
         <v>1</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
@@ -1874,18 +1874,18 @@
       <c r="A22" s="16">
         <v>2</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
     </row>
     <row r="23" spans="1:19" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
@@ -1926,18 +1926,18 @@
       <c r="A24" s="16">
         <v>3</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
@@ -1978,18 +1978,18 @@
       <c r="A26" s="16">
         <v>4</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
     </row>
     <row r="27" spans="1:19" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A27" s="36">
@@ -2026,18 +2026,18 @@
       <c r="A28" s="16">
         <v>5</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
     </row>
     <row r="29" spans="1:19" ht="236.25" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
@@ -2322,18 +2322,18 @@
       <c r="A38" s="16">
         <v>6</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
     </row>
     <row r="39" spans="1:11" ht="267" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39">
@@ -2399,46 +2399,46 @@
     </row>
     <row r="41" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="22"/>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="59"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="74"/>
     </row>
     <row r="43" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="74"/>
     </row>
     <row r="44" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
@@ -2457,13 +2457,14 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B42:K43"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B24:K24"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="B28:K28"/>
@@ -2480,14 +2481,13 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B42:K43"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2547,65 +2547,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A70E945F2728E4A865DDF9F320753FE" ma:contentTypeVersion="86" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="06fec312cba06fbcf70ba4c04a362f8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2836469c-b43e-4aa1-9b97-2c3e7041e824" xmlns:ns3="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns4="8aefd74c-d14b-451e-bb38-cf3a729b3efa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2161b57cbe0e59f69b87efa28a5d6ef4" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3035,6 +2976,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
   <ds:schemaRefs>
@@ -3049,22 +3049,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC29104A-1A53-470F-A7CF-277D114B0998}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3083,4 +3067,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>